--- a/data/pca/factorExposure/factorExposure_2015-03-31.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-03-31.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,18 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,27 +723,51 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>0.02320244791868974</v>
+        <v>0.01373586043842679</v>
       </c>
       <c r="C2">
-        <v>0.02617610151810903</v>
+        <v>0.05213964842113731</v>
       </c>
       <c r="D2">
-        <v>-0.1468447918565306</v>
+        <v>0.122455199140242</v>
       </c>
       <c r="E2">
-        <v>0.04769391276984322</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.03260364868060329</v>
+      </c>
+      <c r="F2">
+        <v>-0.03945350040853033</v>
+      </c>
+      <c r="G2">
+        <v>-0.06874317781171095</v>
+      </c>
+      <c r="H2">
+        <v>0.1291819976301302</v>
+      </c>
+      <c r="I2">
+        <v>0.0433726894731257</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -745,27 +781,51 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>0.04826389576729651</v>
+        <v>0.02235642322529529</v>
       </c>
       <c r="C4">
-        <v>0.07210751134481214</v>
+        <v>0.1096179285403118</v>
       </c>
       <c r="D4">
-        <v>-0.09991144529583421</v>
+        <v>0.1142409987035191</v>
       </c>
       <c r="E4">
-        <v>0.1064551360633212</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.02228459258583668</v>
+      </c>
+      <c r="F4">
+        <v>-0.09929301251136724</v>
+      </c>
+      <c r="G4">
+        <v>0.02399834451323028</v>
+      </c>
+      <c r="H4">
+        <v>0.03320864675249918</v>
+      </c>
+      <c r="I4">
+        <v>-0.09702414322893382</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +839,341 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0.03050523425065283</v>
+        <v>0.03484927827561479</v>
       </c>
       <c r="C6">
-        <v>0.01594697777554513</v>
+        <v>0.04038394228708891</v>
       </c>
       <c r="D6">
-        <v>-0.1185828891031659</v>
+        <v>0.1064889787696322</v>
       </c>
       <c r="E6">
-        <v>0.0655177267853059</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.07151454306194489</v>
+      </c>
+      <c r="F6">
+        <v>-0.04740903916846774</v>
+      </c>
+      <c r="G6">
+        <v>0.03480044681123132</v>
+      </c>
+      <c r="H6">
+        <v>0.02221490928905096</v>
+      </c>
+      <c r="I6">
+        <v>-0.004355314975084827</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>0.00177674464770478</v>
+        <v>0.007303577346104219</v>
       </c>
       <c r="C7">
-        <v>0.02535407326055184</v>
+        <v>0.04001924017329247</v>
       </c>
       <c r="D7">
-        <v>-0.1078741241364412</v>
+        <v>0.08980550131827338</v>
       </c>
       <c r="E7">
-        <v>0.02935228097110759</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.05636602291959483</v>
+      </c>
+      <c r="F7">
+        <v>-0.01183350913712291</v>
+      </c>
+      <c r="G7">
+        <v>0.06732371008401382</v>
+      </c>
+      <c r="H7">
+        <v>0.04530016108663918</v>
+      </c>
+      <c r="I7">
+        <v>-0.0607496200488532</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>0.003930233687165469</v>
+        <v>-0.00440063215565501</v>
       </c>
       <c r="C8">
-        <v>0.02755444326801831</v>
+        <v>0.03878755640076644</v>
       </c>
       <c r="D8">
-        <v>-0.08215096412546914</v>
+        <v>0.06486862382041826</v>
       </c>
       <c r="E8">
-        <v>0.04446010988927743</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.04089009671736205</v>
+      </c>
+      <c r="F8">
+        <v>-0.05045980437241999</v>
+      </c>
+      <c r="G8">
+        <v>-0.04326535145853281</v>
+      </c>
+      <c r="H8">
+        <v>0.03373763976701594</v>
+      </c>
+      <c r="I8">
+        <v>-0.03721973692442418</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>0.03827164803254861</v>
+        <v>0.0163379465496185</v>
       </c>
       <c r="C9">
-        <v>0.06368228518155886</v>
+        <v>0.09018898627685246</v>
       </c>
       <c r="D9">
-        <v>-0.1005637074485025</v>
+        <v>0.09953036557496121</v>
       </c>
       <c r="E9">
-        <v>0.08617829616334165</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.01779122746666907</v>
+      </c>
+      <c r="F9">
+        <v>-0.06665261617441096</v>
+      </c>
+      <c r="G9">
+        <v>0.04272338625938808</v>
+      </c>
+      <c r="H9">
+        <v>0.04342044685090439</v>
+      </c>
+      <c r="I9">
+        <v>-0.05762321497882353</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>0.1820343967704467</v>
+        <v>0.2424886276512615</v>
       </c>
       <c r="C10">
-        <v>-0.1688428380118878</v>
+        <v>-0.09418432526097759</v>
       </c>
       <c r="D10">
-        <v>0.02200915070188288</v>
+        <v>-0.01360911739473467</v>
       </c>
       <c r="E10">
-        <v>0.03941465116079727</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.01703178853721781</v>
+      </c>
+      <c r="F10">
+        <v>-0.03790073101103871</v>
+      </c>
+      <c r="G10">
+        <v>-0.01340680607826886</v>
+      </c>
+      <c r="H10">
+        <v>-0.01333353892248083</v>
+      </c>
+      <c r="I10">
+        <v>0.01120956967158963</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>0.01797642530549861</v>
+        <v>0.01196281211213174</v>
       </c>
       <c r="C11">
-        <v>0.04131897866379372</v>
+        <v>0.05846099452177015</v>
       </c>
       <c r="D11">
-        <v>-0.04097013519105775</v>
+        <v>0.03677724081781461</v>
       </c>
       <c r="E11">
-        <v>-0.0112294345898963</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.02555790656929481</v>
+      </c>
+      <c r="F11">
+        <v>0.01311934511795784</v>
+      </c>
+      <c r="G11">
+        <v>0.03633292690453459</v>
+      </c>
+      <c r="H11">
+        <v>0.02081246598604742</v>
+      </c>
+      <c r="I11">
+        <v>-0.04163524227812938</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>0.01705047097395245</v>
+        <v>0.01264338396803059</v>
       </c>
       <c r="C12">
-        <v>0.04220298022819495</v>
+        <v>0.05163570641903534</v>
       </c>
       <c r="D12">
-        <v>-0.0539061277464568</v>
+        <v>0.04429107159006615</v>
       </c>
       <c r="E12">
-        <v>0.001586706204553696</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.02105661970001182</v>
+      </c>
+      <c r="F12">
+        <v>0.01546917357148027</v>
+      </c>
+      <c r="G12">
+        <v>0.05943299979935386</v>
+      </c>
+      <c r="H12">
+        <v>0.03734568608971322</v>
+      </c>
+      <c r="I12">
+        <v>-0.01623682580858041</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>0.009252184162544044</v>
+        <v>0.004600933665145863</v>
       </c>
       <c r="C13">
-        <v>0.02679647088211426</v>
+        <v>0.05770288405157738</v>
       </c>
       <c r="D13">
-        <v>-0.1303188039283724</v>
+        <v>0.15438894563318</v>
       </c>
       <c r="E13">
-        <v>0.06536066020695185</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.04293401763177933</v>
+      </c>
+      <c r="F13">
+        <v>-0.04100288940854115</v>
+      </c>
+      <c r="G13">
+        <v>0.02712482418451391</v>
+      </c>
+      <c r="H13">
+        <v>0.1072586458631303</v>
+      </c>
+      <c r="I13">
+        <v>0.03634005425710891</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>-0.003650648494607484</v>
+        <v>0.004616919124693068</v>
       </c>
       <c r="C14">
-        <v>0.0194083987970667</v>
+        <v>0.03507360773121619</v>
       </c>
       <c r="D14">
-        <v>-0.08135179667822816</v>
+        <v>0.0886758724208688</v>
       </c>
       <c r="E14">
-        <v>0.02652761765455239</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.06388667730200742</v>
+      </c>
+      <c r="F14">
+        <v>-0.02907136527316444</v>
+      </c>
+      <c r="G14">
+        <v>0.07293044969936252</v>
+      </c>
+      <c r="H14">
+        <v>0.1198949697362111</v>
+      </c>
+      <c r="I14">
+        <v>-0.03800188781202453</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>-0.002654189896225586</v>
+        <v>-0.003540343370462875</v>
       </c>
       <c r="C15">
-        <v>0.01306435425353642</v>
+        <v>0.02938356856902798</v>
       </c>
       <c r="D15">
-        <v>-0.04046391400746412</v>
+        <v>0.05619862918664927</v>
       </c>
       <c r="E15">
-        <v>0.005961158967946713</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>0.02427429601422505</v>
+      </c>
+      <c r="F15">
+        <v>-0.00897246565699833</v>
+      </c>
+      <c r="G15">
+        <v>0.0140971451895241</v>
+      </c>
+      <c r="H15">
+        <v>0.04869647299630849</v>
+      </c>
+      <c r="I15">
+        <v>-0.03635329405461823</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>0.01722890580689496</v>
+        <v>0.01113382736941306</v>
       </c>
       <c r="C16">
-        <v>0.03774910019150462</v>
+        <v>0.05121773990680302</v>
       </c>
       <c r="D16">
-        <v>-0.04630450835609368</v>
+        <v>0.0401547643662586</v>
       </c>
       <c r="E16">
-        <v>0.0005751044670286858</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.02699439881405642</v>
+      </c>
+      <c r="F16">
+        <v>0.007367616000257191</v>
+      </c>
+      <c r="G16">
+        <v>0.0451089997339138</v>
+      </c>
+      <c r="H16">
+        <v>0.01741580757335256</v>
+      </c>
+      <c r="I16">
+        <v>-0.02756135516622655</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1187,22 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1216,254 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>0.0009989510368843062</v>
+        <v>-0.001928349076026629</v>
       </c>
       <c r="C19">
-        <v>0.02127939518635502</v>
+        <v>0.01720853269269881</v>
       </c>
       <c r="D19">
-        <v>-0.07122532331137278</v>
+        <v>0.04743192899863689</v>
       </c>
       <c r="E19">
-        <v>0.04150732814021207</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>-0.006025718644616692</v>
+      </c>
+      <c r="F19">
+        <v>-0.01352462371565775</v>
+      </c>
+      <c r="G19">
+        <v>0.008720901639339185</v>
+      </c>
+      <c r="H19">
+        <v>0.04883541793167326</v>
+      </c>
+      <c r="I19">
+        <v>-0.004037362647348519</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>0.003803754449110073</v>
+        <v>0.005587643384127968</v>
       </c>
       <c r="C20">
-        <v>0.02606048130917514</v>
+        <v>0.04278854698749714</v>
       </c>
       <c r="D20">
-        <v>-0.07257171738082642</v>
+        <v>0.07995003163957193</v>
       </c>
       <c r="E20">
-        <v>0.04831095662656318</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.02982079620815591</v>
+      </c>
+      <c r="F20">
+        <v>-0.02795772322027557</v>
+      </c>
+      <c r="G20">
+        <v>0.04697622093183215</v>
+      </c>
+      <c r="H20">
+        <v>0.02594912733411233</v>
+      </c>
+      <c r="I20">
+        <v>-0.05538354020345227</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>0.01143461543388862</v>
+        <v>0.005427463389205464</v>
       </c>
       <c r="C21">
-        <v>0.03223083575356189</v>
+        <v>0.05044002058827458</v>
       </c>
       <c r="D21">
-        <v>-0.1274040879019471</v>
+        <v>0.1149625855408124</v>
       </c>
       <c r="E21">
-        <v>0.103055966426267</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.03655995053011946</v>
+      </c>
+      <c r="F21">
+        <v>-0.09116506554627891</v>
+      </c>
+      <c r="G21">
+        <v>0.06786268249195361</v>
+      </c>
+      <c r="H21">
+        <v>0.1927202304359445</v>
+      </c>
+      <c r="I21">
+        <v>-0.002118417863830735</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>0.006718439700643375</v>
+        <v>-0.007436717468913444</v>
       </c>
       <c r="C22">
-        <v>0.07415659012954251</v>
+        <v>0.09740223212417465</v>
       </c>
       <c r="D22">
-        <v>-0.3137961336306068</v>
+        <v>0.2714432865022284</v>
       </c>
       <c r="E22">
-        <v>0.07903711973456121</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>0.0939359818975922</v>
+      </c>
+      <c r="F22">
+        <v>-0.04942310025632059</v>
+      </c>
+      <c r="G22">
+        <v>-0.5194630702374611</v>
+      </c>
+      <c r="H22">
+        <v>-0.1737985062370673</v>
+      </c>
+      <c r="I22">
+        <v>0.06565105439059217</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>0.0070505556259362</v>
+        <v>-0.004315394525123029</v>
       </c>
       <c r="C23">
-        <v>0.07440461278631277</v>
+        <v>0.09897571023082362</v>
       </c>
       <c r="D23">
-        <v>-0.3123601318200429</v>
+        <v>0.2736850510776904</v>
       </c>
       <c r="E23">
-        <v>0.07919214530670071</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>0.08864411941440818</v>
+      </c>
+      <c r="F23">
+        <v>-0.05198467554514315</v>
+      </c>
+      <c r="G23">
+        <v>-0.5030337889949718</v>
+      </c>
+      <c r="H23">
+        <v>-0.1646409544325054</v>
+      </c>
+      <c r="I23">
+        <v>0.06392487575125132</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>0.02378839203213753</v>
+        <v>0.01237084328403315</v>
       </c>
       <c r="C24">
-        <v>0.0597494055571486</v>
+        <v>0.0693658390623647</v>
       </c>
       <c r="D24">
-        <v>-0.05761007646347315</v>
+        <v>0.04220740351818228</v>
       </c>
       <c r="E24">
-        <v>0.002675416450437264</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.0324849385910831</v>
+      </c>
+      <c r="F24">
+        <v>0.005908919316382783</v>
+      </c>
+      <c r="G24">
+        <v>0.0473024824708907</v>
+      </c>
+      <c r="H24">
+        <v>0.04566309728923476</v>
+      </c>
+      <c r="I24">
+        <v>-0.04416325459469608</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>0.02432122988495655</v>
+        <v>0.0167041339525455</v>
       </c>
       <c r="C25">
-        <v>0.05099911484785569</v>
+        <v>0.06387139644099374</v>
       </c>
       <c r="D25">
-        <v>-0.05512873736256791</v>
+        <v>0.04637131583317663</v>
       </c>
       <c r="E25">
-        <v>0.009834842164298847</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.02014947650231553</v>
+      </c>
+      <c r="F25">
+        <v>0.005737405383549637</v>
+      </c>
+      <c r="G25">
+        <v>0.03763984953912784</v>
+      </c>
+      <c r="H25">
+        <v>0.01727320991508255</v>
+      </c>
+      <c r="I25">
+        <v>-0.02545673483493161</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>0.00997225195178148</v>
+        <v>0.01857211637709812</v>
       </c>
       <c r="C26">
-        <v>0.01633829994827975</v>
+        <v>0.02963690940977172</v>
       </c>
       <c r="D26">
-        <v>-0.06402093460553777</v>
+        <v>0.05391147156372676</v>
       </c>
       <c r="E26">
-        <v>0.03512995178026749</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.04266934528564383</v>
+      </c>
+      <c r="F26">
+        <v>-0.04492812954026378</v>
+      </c>
+      <c r="G26">
+        <v>0.0469120347312787</v>
+      </c>
+      <c r="H26">
+        <v>0.08607647380843821</v>
+      </c>
+      <c r="I26">
+        <v>-0.04163239444143082</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1477,283 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>0.2613649039883605</v>
+        <v>0.3121484858986596</v>
       </c>
       <c r="C28">
-        <v>-0.1915399754712692</v>
+        <v>-0.09733623016042736</v>
       </c>
       <c r="D28">
-        <v>0.01235971857330531</v>
+        <v>-0.0242347569404473</v>
       </c>
       <c r="E28">
-        <v>0.03779689873208238</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.05447529512248082</v>
+      </c>
+      <c r="F28">
+        <v>-0.04355162373188897</v>
+      </c>
+      <c r="G28">
+        <v>-0.05854095796551355</v>
+      </c>
+      <c r="H28">
+        <v>0.03083635977033516</v>
+      </c>
+      <c r="I28">
+        <v>-0.01580776337560791</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>0.001813244976862462</v>
+        <v>0.003352732696439499</v>
       </c>
       <c r="C29">
-        <v>0.02263867892785379</v>
+        <v>0.04086269894128413</v>
       </c>
       <c r="D29">
-        <v>-0.07803529767976879</v>
+        <v>0.09211697421843441</v>
       </c>
       <c r="E29">
-        <v>0.03556343139852846</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.07135269039612116</v>
+      </c>
+      <c r="F29">
+        <v>-0.03201116960508021</v>
+      </c>
+      <c r="G29">
+        <v>0.09770988970862214</v>
+      </c>
+      <c r="H29">
+        <v>0.1336361618151665</v>
+      </c>
+      <c r="I29">
+        <v>-0.0411958486401725</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>0.03075002450392396</v>
+        <v>0.0191114045587825</v>
       </c>
       <c r="C30">
-        <v>0.07018354944571149</v>
+        <v>0.09837001498229765</v>
       </c>
       <c r="D30">
-        <v>-0.1471021555909945</v>
+        <v>0.1238130615210827</v>
       </c>
       <c r="E30">
-        <v>0.04983116378498485</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.06337256831438641</v>
+      </c>
+      <c r="F30">
+        <v>-0.02253700538721118</v>
+      </c>
+      <c r="G30">
+        <v>0.0148532778410027</v>
+      </c>
+      <c r="H30">
+        <v>0.02785517281670538</v>
+      </c>
+      <c r="I30">
+        <v>-0.0668677861345322</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>0.0384460737609295</v>
+        <v>0.01143197415217861</v>
       </c>
       <c r="C31">
-        <v>0.08359521624252191</v>
+        <v>0.09493613608770148</v>
       </c>
       <c r="D31">
-        <v>-0.04971815811122198</v>
+        <v>0.03301265480321387</v>
       </c>
       <c r="E31">
-        <v>0.0195644979610723</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.0189407517598581</v>
+      </c>
+      <c r="F31">
+        <v>-0.01754375213143388</v>
+      </c>
+      <c r="G31">
+        <v>0.01643159846426771</v>
+      </c>
+      <c r="H31">
+        <v>0.03980248387026683</v>
+      </c>
+      <c r="I31">
+        <v>-0.02804553597631373</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>0.01697876275474739</v>
+        <v>0.01254339396507113</v>
       </c>
       <c r="C32">
-        <v>0.04013882932736945</v>
+        <v>0.05139435046130897</v>
       </c>
       <c r="D32">
-        <v>-0.0773868277886794</v>
+        <v>0.07665646943039219</v>
       </c>
       <c r="E32">
-        <v>0.06329920680678981</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.002812009980964243</v>
+      </c>
+      <c r="F32">
+        <v>-0.04917667429587497</v>
+      </c>
+      <c r="G32">
+        <v>0.02385602288385402</v>
+      </c>
+      <c r="H32">
+        <v>0.06449937001387444</v>
+      </c>
+      <c r="I32">
+        <v>-0.01070095167410491</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>0.008850134833418457</v>
+        <v>0.009468182757061917</v>
       </c>
       <c r="C33">
-        <v>0.04145954558845635</v>
+        <v>0.06319056517154005</v>
       </c>
       <c r="D33">
-        <v>-0.1106011365473716</v>
+        <v>0.1118540183592435</v>
       </c>
       <c r="E33">
-        <v>0.05563843132715986</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.038537427824696</v>
+      </c>
+      <c r="F33">
+        <v>-0.03037175849812156</v>
+      </c>
+      <c r="G33">
+        <v>0.0326836338107472</v>
+      </c>
+      <c r="H33">
+        <v>0.04342718071189329</v>
+      </c>
+      <c r="I33">
+        <v>-0.02764358707490822</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>0.02229657987251085</v>
+        <v>0.01175486032171232</v>
       </c>
       <c r="C34">
-        <v>0.05957213636253897</v>
+        <v>0.06352417352610785</v>
       </c>
       <c r="D34">
-        <v>-0.04995989188121529</v>
+        <v>0.02319966383564108</v>
       </c>
       <c r="E34">
-        <v>-0.04080863750597243</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.02901492907875301</v>
+      </c>
+      <c r="F34">
+        <v>0.03892205969220096</v>
+      </c>
+      <c r="G34">
+        <v>0.03155094338977554</v>
+      </c>
+      <c r="H34">
+        <v>0.03111132584926369</v>
+      </c>
+      <c r="I34">
+        <v>-0.02030123167690079</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.003812410976728375</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.01338924382382181</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>0.03211891408125153</v>
       </c>
       <c r="E35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>0.009579455567242903</v>
+      </c>
+      <c r="F35">
+        <v>-0.0162276204559912</v>
+      </c>
+      <c r="G35">
+        <v>0.0420584732792214</v>
+      </c>
+      <c r="H35">
+        <v>0.04609604218978509</v>
+      </c>
+      <c r="I35">
+        <v>-0.02656991372510468</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>0.008269490796067529</v>
+        <v>0.01180476237604808</v>
       </c>
       <c r="C36">
-        <v>0.008305244773954916</v>
+        <v>0.02318615529079157</v>
       </c>
       <c r="D36">
-        <v>-0.06548237734264589</v>
+        <v>0.06528605450337795</v>
       </c>
       <c r="E36">
-        <v>0.05608213193282587</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.03283556411678482</v>
+      </c>
+      <c r="F36">
+        <v>-0.05060306219108422</v>
+      </c>
+      <c r="G36">
+        <v>0.03109247730768545</v>
+      </c>
+      <c r="H36">
+        <v>0.05768245240760315</v>
+      </c>
+      <c r="I36">
+        <v>-0.03157961478659185</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1767,138 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>0.006849815933246402</v>
+        <v>0.01167884301418937</v>
       </c>
       <c r="C38">
-        <v>0.008396064811174881</v>
+        <v>0.02766657153183042</v>
       </c>
       <c r="D38">
-        <v>-0.07901575088470687</v>
+        <v>0.08509653171353519</v>
       </c>
       <c r="E38">
-        <v>0.02010985354493799</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.01804691746436907</v>
+      </c>
+      <c r="F38">
+        <v>-0.005172468428372827</v>
+      </c>
+      <c r="G38">
+        <v>0.009964063837030168</v>
+      </c>
+      <c r="H38">
+        <v>0.05208057914219254</v>
+      </c>
+      <c r="I38">
+        <v>-0.06393303796499583</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>0.0183559958685312</v>
+        <v>0.008542004953478281</v>
       </c>
       <c r="C39">
-        <v>0.0613185356156937</v>
+        <v>0.08413141457980537</v>
       </c>
       <c r="D39">
-        <v>-0.1027944730616115</v>
+        <v>0.08537845860277943</v>
       </c>
       <c r="E39">
-        <v>0.01155333597382634</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.06023906094609906</v>
+      </c>
+      <c r="F39">
+        <v>0.006662476030353124</v>
+      </c>
+      <c r="G39">
+        <v>0.07202337039607153</v>
+      </c>
+      <c r="H39">
+        <v>0.06555709840282894</v>
+      </c>
+      <c r="I39">
+        <v>-0.05439375472640934</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>0.01909713920732435</v>
+        <v>0.01432107414766833</v>
       </c>
       <c r="C40">
-        <v>0.02460236468263229</v>
+        <v>0.04414924523451708</v>
       </c>
       <c r="D40">
-        <v>-0.1167345201331699</v>
+        <v>0.09065749319178475</v>
       </c>
       <c r="E40">
-        <v>0.007109578040733995</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.05710830247353073</v>
+      </c>
+      <c r="F40">
+        <v>0.02585007307547407</v>
+      </c>
+      <c r="G40">
+        <v>-0.01231756780381011</v>
+      </c>
+      <c r="H40">
+        <v>0.09953415008805555</v>
+      </c>
+      <c r="I40">
+        <v>-0.006765089722999615</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>0.01079728024483627</v>
+        <v>0.0194213874263874</v>
       </c>
       <c r="C41">
-        <v>0.002953126983838956</v>
+        <v>0.02157587432373624</v>
       </c>
       <c r="D41">
-        <v>-0.03240743753673709</v>
+        <v>0.04209304268922955</v>
       </c>
       <c r="E41">
-        <v>0.03311451377352698</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.0007735234418002217</v>
+      </c>
+      <c r="F41">
+        <v>-0.02321305739890418</v>
+      </c>
+      <c r="G41">
+        <v>0.02077277302030161</v>
+      </c>
+      <c r="H41">
+        <v>0.03023324559423464</v>
+      </c>
+      <c r="I41">
+        <v>-0.02360759580962527</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +1912,80 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>0.001152798639131054</v>
+        <v>0.01104050488454571</v>
       </c>
       <c r="C43">
-        <v>0.003173206054639253</v>
+        <v>0.01788579767325349</v>
       </c>
       <c r="D43">
-        <v>-0.04860895791137823</v>
+        <v>0.05073563803407884</v>
       </c>
       <c r="E43">
-        <v>0.02814579706601157</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.01613543279082693</v>
+      </c>
+      <c r="F43">
+        <v>-0.02340471925569238</v>
+      </c>
+      <c r="G43">
+        <v>0.02634798515368183</v>
+      </c>
+      <c r="H43">
+        <v>0.03706364737658357</v>
+      </c>
+      <c r="I43">
+        <v>-0.04380270520642424</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>0.02053145832453294</v>
+        <v>0.01217527974360173</v>
       </c>
       <c r="C44">
-        <v>0.02464156007493649</v>
+        <v>0.0493617545652576</v>
       </c>
       <c r="D44">
-        <v>-0.09028838823639385</v>
+        <v>0.09909431671373541</v>
       </c>
       <c r="E44">
-        <v>0.06793299815021649</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.04701452242743441</v>
+      </c>
+      <c r="F44">
+        <v>-0.04079980574896126</v>
+      </c>
+      <c r="G44">
+        <v>0.009559100796421577</v>
+      </c>
+      <c r="H44">
+        <v>0.05420884936041194</v>
+      </c>
+      <c r="I44">
+        <v>-0.04889229867405996</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1999,109 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>0.005154817412393586</v>
+        <v>-0.0009061063502908184</v>
       </c>
       <c r="C46">
-        <v>0.03100459687138257</v>
+        <v>0.04266501310972995</v>
       </c>
       <c r="D46">
-        <v>-0.07523834613002331</v>
+        <v>0.06721992498570126</v>
       </c>
       <c r="E46">
-        <v>0.03419971679613661</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.05126399596002373</v>
+      </c>
+      <c r="F46">
+        <v>-0.03499365974301185</v>
+      </c>
+      <c r="G46">
+        <v>0.05933662669566826</v>
+      </c>
+      <c r="H46">
+        <v>0.101296501836977</v>
+      </c>
+      <c r="I46">
+        <v>-0.06122515834340005</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>0.07816425871274116</v>
+        <v>0.03260935454266783</v>
       </c>
       <c r="C47">
-        <v>0.1084275752750767</v>
+        <v>0.1261516887103793</v>
       </c>
       <c r="D47">
-        <v>-0.04433694792195508</v>
+        <v>0.01685440634141071</v>
       </c>
       <c r="E47">
-        <v>0.02307798481747066</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>-0.01339524133473342</v>
+      </c>
+      <c r="F47">
+        <v>0.004843751896540252</v>
+      </c>
+      <c r="G47">
+        <v>0.05175335466258399</v>
+      </c>
+      <c r="H47">
+        <v>0.02556091468976176</v>
+      </c>
+      <c r="I47">
+        <v>-0.03638580036110977</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>0.01055182121065756</v>
+        <v>0.01490258257617573</v>
       </c>
       <c r="C48">
-        <v>0.01902737845970433</v>
+        <v>0.0342927685997587</v>
       </c>
       <c r="D48">
-        <v>-0.06426989375671373</v>
+        <v>0.06716235311936523</v>
       </c>
       <c r="E48">
-        <v>0.059178992452748</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.02343482071504844</v>
+      </c>
+      <c r="F48">
+        <v>-0.05631848536090169</v>
+      </c>
+      <c r="G48">
+        <v>0.04861487893273222</v>
+      </c>
+      <c r="H48">
+        <v>0.08986215106338284</v>
+      </c>
+      <c r="I48">
+        <v>-0.06266374619853662</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +2115,80 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>0.03436003918954572</v>
+        <v>0.01442198616192982</v>
       </c>
       <c r="C50">
-        <v>0.05723729811091056</v>
+        <v>0.07526584752171415</v>
       </c>
       <c r="D50">
-        <v>-0.05245607762799216</v>
+        <v>0.04291909344958973</v>
       </c>
       <c r="E50">
-        <v>0.01428416189783481</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.01551574920147564</v>
+      </c>
+      <c r="F50">
+        <v>-0.01064747772923411</v>
+      </c>
+      <c r="G50">
+        <v>0.004794298441515391</v>
+      </c>
+      <c r="H50">
+        <v>0.0257854741105081</v>
+      </c>
+      <c r="I50">
+        <v>-0.03341054681929864</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>0.004415947930743112</v>
+        <v>-0.004627714520407038</v>
       </c>
       <c r="C51">
-        <v>0.007654870229496312</v>
+        <v>0.01748198081052589</v>
       </c>
       <c r="D51">
-        <v>-0.06128981112301775</v>
+        <v>0.04269214362036474</v>
       </c>
       <c r="E51">
-        <v>0.02293254740288952</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0.03696198492450824</v>
+      </c>
+      <c r="F51">
+        <v>-0.03621956800228944</v>
+      </c>
+      <c r="G51">
+        <v>0.009317002372033647</v>
+      </c>
+      <c r="H51">
+        <v>0.07217683888902263</v>
+      </c>
+      <c r="I51">
+        <v>-0.02535956013005593</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,78 +2202,138 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>0.1100454354676906</v>
+        <v>0.06040203931283554</v>
       </c>
       <c r="C53">
-        <v>0.1250406067390416</v>
+        <v>0.1578124222929442</v>
       </c>
       <c r="D53">
-        <v>0.01647074130328776</v>
+        <v>-0.02683250492302714</v>
       </c>
       <c r="E53">
-        <v>0.04131894896753958</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.0349648750770074</v>
+      </c>
+      <c r="F53">
+        <v>-0.04227372504887963</v>
+      </c>
+      <c r="G53">
+        <v>0.00562228452845371</v>
+      </c>
+      <c r="H53">
+        <v>0.01005178177099948</v>
+      </c>
+      <c r="I53">
+        <v>-0.01823446794057811</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>0.01204688884219427</v>
+        <v>0.01259696153971486</v>
       </c>
       <c r="C54">
-        <v>0.02338198809058295</v>
+        <v>0.04066213779379325</v>
       </c>
       <c r="D54">
-        <v>-0.08540709629570598</v>
+        <v>0.07423630320805985</v>
       </c>
       <c r="E54">
-        <v>0.01876018093772116</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.02431632860986768</v>
+      </c>
+      <c r="F54">
+        <v>-0.006187734680372456</v>
+      </c>
+      <c r="G54">
+        <v>0.02312733398384773</v>
+      </c>
+      <c r="H54">
+        <v>0.06361131418050106</v>
+      </c>
+      <c r="I54">
+        <v>-0.06268308059884058</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>0.09524438668431401</v>
+        <v>0.04419930935322643</v>
       </c>
       <c r="C55">
-        <v>0.1079351137275459</v>
+        <v>0.1293534868587372</v>
       </c>
       <c r="D55">
-        <v>0.0006345942159831945</v>
+        <v>-0.04476638754945487</v>
       </c>
       <c r="E55">
-        <v>-0.005398163110841506</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>-0.0004741322045174813</v>
+      </c>
+      <c r="F55">
+        <v>-0.002184658998352166</v>
+      </c>
+      <c r="G55">
+        <v>-0.004698236574086434</v>
+      </c>
+      <c r="H55">
+        <v>0.01449707714434947</v>
+      </c>
+      <c r="I55">
+        <v>0.002643597306981841</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>0.133497367428221</v>
+        <v>0.06141143573083938</v>
       </c>
       <c r="C56">
-        <v>0.1474296900941649</v>
+        <v>0.1878446071166538</v>
       </c>
       <c r="D56">
-        <v>-0.005238367884249927</v>
+        <v>-0.0421817514268347</v>
       </c>
       <c r="E56">
-        <v>-0.005813823970943629</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>-0.03423388262894369</v>
+      </c>
+      <c r="F56">
+        <v>-0.008097091296383804</v>
+      </c>
+      <c r="G56">
+        <v>-0.0407721821131634</v>
+      </c>
+      <c r="H56">
+        <v>0.03938709254099349</v>
+      </c>
+      <c r="I56">
+        <v>-0.01096490501454089</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,78 +2347,138 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>-0.001033735633406713</v>
+        <v>0.006638853299804843</v>
       </c>
       <c r="C58">
-        <v>0.02009180870682207</v>
+        <v>0.06521914433529372</v>
       </c>
       <c r="D58">
-        <v>-0.2265564147019514</v>
+        <v>0.2774461853195945</v>
       </c>
       <c r="E58">
-        <v>0.1459019061518975</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.04351635407632718</v>
+      </c>
+      <c r="F58">
+        <v>-0.14010624785465</v>
+      </c>
+      <c r="G58">
+        <v>-0.1536660747892785</v>
+      </c>
+      <c r="H58">
+        <v>-0.01224291469018669</v>
+      </c>
+      <c r="I58">
+        <v>-0.04500021402287877</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>0.1854890458270938</v>
+        <v>0.2559375070384335</v>
       </c>
       <c r="C59">
-        <v>-0.1392036171183258</v>
+        <v>-0.06146760908763367</v>
       </c>
       <c r="D59">
-        <v>-0.03861266137065805</v>
+        <v>0.04532919532714164</v>
       </c>
       <c r="E59">
-        <v>0.03213040815682687</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.02162354694950573</v>
+      </c>
+      <c r="F59">
+        <v>-0.01974275257804083</v>
+      </c>
+      <c r="G59">
+        <v>-0.01224102035368681</v>
+      </c>
+      <c r="H59">
+        <v>0.02280068392390709</v>
+      </c>
+      <c r="I59">
+        <v>0.02964502843274144</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>0.1913244976634946</v>
+        <v>0.15812682260399</v>
       </c>
       <c r="C60">
-        <v>0.09934427052822017</v>
+        <v>0.1712538395563095</v>
       </c>
       <c r="D60">
-        <v>-0.191418749905088</v>
+        <v>0.07059129147092429</v>
       </c>
       <c r="E60">
-        <v>-0.07584410692423249</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.1437464420872016</v>
+      </c>
+      <c r="F60">
+        <v>0.1984390726729724</v>
+      </c>
+      <c r="G60">
+        <v>0.09083992549559096</v>
+      </c>
+      <c r="H60">
+        <v>-0.2362810908851856</v>
+      </c>
+      <c r="I60">
+        <v>0.2146016732548667</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>0.02799891469406291</v>
+        <v>0.01639673279192903</v>
       </c>
       <c r="C61">
-        <v>0.05581890305468204</v>
+        <v>0.07918508636038003</v>
       </c>
       <c r="D61">
-        <v>-0.07668564363418984</v>
+        <v>0.06359745056665135</v>
       </c>
       <c r="E61">
-        <v>0.0009392781527643703</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.04196575495507621</v>
+      </c>
+      <c r="F61">
+        <v>0.01541515089672013</v>
+      </c>
+      <c r="G61">
+        <v>0.06765319431340222</v>
+      </c>
+      <c r="H61">
+        <v>0.05277926333476092</v>
+      </c>
+      <c r="I61">
+        <v>-0.03655272558480058</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2492,225 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>0.01222631772749006</v>
+        <v>0.01585056004367831</v>
       </c>
       <c r="C63">
-        <v>0.02607341568074157</v>
+        <v>0.04289447630110235</v>
       </c>
       <c r="D63">
-        <v>-0.07520025202560143</v>
+        <v>0.05386007495963682</v>
       </c>
       <c r="E63">
-        <v>0.02825126838924034</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.06159985547406272</v>
+      </c>
+      <c r="F63">
+        <v>-0.02433284032910761</v>
+      </c>
+      <c r="G63">
+        <v>0.04033445984470128</v>
+      </c>
+      <c r="H63">
+        <v>0.05368247132344878</v>
+      </c>
+      <c r="I63">
+        <v>-0.0415311905625004</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>0.05535731550952626</v>
+        <v>0.01918553590557786</v>
       </c>
       <c r="C64">
-        <v>0.08493022237911987</v>
+        <v>0.1014245889707458</v>
       </c>
       <c r="D64">
-        <v>-0.01434577390001087</v>
+        <v>0.007349709736371581</v>
       </c>
       <c r="E64">
-        <v>0.02236926480658407</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.02230810661121392</v>
+      </c>
+      <c r="F64">
+        <v>-0.01997554664334594</v>
+      </c>
+      <c r="G64">
+        <v>0.04826530386640365</v>
+      </c>
+      <c r="H64">
+        <v>0.01346432556926095</v>
+      </c>
+      <c r="I64">
+        <v>-0.04762392573385227</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0.02814218584320141</v>
+        <v>0.02627070087825571</v>
       </c>
       <c r="C65">
-        <v>0.01941234844900477</v>
+        <v>0.04795641775502827</v>
       </c>
       <c r="D65">
-        <v>-0.10375795277015</v>
+        <v>0.1031853287707331</v>
       </c>
       <c r="E65">
-        <v>0.0292751939133012</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.05482226553018947</v>
+      </c>
+      <c r="F65">
+        <v>0.003011965029556745</v>
+      </c>
+      <c r="G65">
+        <v>0.03600700931431048</v>
+      </c>
+      <c r="H65">
+        <v>-0.02747168154686317</v>
+      </c>
+      <c r="I65">
+        <v>-0.02781047256931438</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>0.02527786889549236</v>
+        <v>0.008778651967463256</v>
       </c>
       <c r="C66">
-        <v>0.0718714457272332</v>
+        <v>0.1043840066260563</v>
       </c>
       <c r="D66">
-        <v>-0.1225885843483951</v>
+        <v>0.1105053291891401</v>
       </c>
       <c r="E66">
-        <v>0.01247691690826558</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.05505418642647356</v>
+      </c>
+      <c r="F66">
+        <v>0.006475210438068972</v>
+      </c>
+      <c r="G66">
+        <v>0.0378081917324047</v>
+      </c>
+      <c r="H66">
+        <v>0.05301851338433674</v>
+      </c>
+      <c r="I66">
+        <v>-0.04593925420881249</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>0.02357063641471672</v>
+        <v>0.02207910940486469</v>
       </c>
       <c r="C67">
-        <v>0.02024230258943586</v>
+        <v>0.03753777212834782</v>
       </c>
       <c r="D67">
-        <v>-0.04650379777644467</v>
+        <v>0.04407104938160876</v>
       </c>
       <c r="E67">
-        <v>-0.01216417609718024</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.02112567565121668</v>
+      </c>
+      <c r="F67">
+        <v>0.02575059223203765</v>
+      </c>
+      <c r="G67">
+        <v>0.02353204322954709</v>
+      </c>
+      <c r="H67">
+        <v>0.04210781228053242</v>
+      </c>
+      <c r="I67">
+        <v>-0.05166269332076193</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>0.2009690453412415</v>
+        <v>0.2771837284281926</v>
       </c>
       <c r="C68">
-        <v>-0.1497740123531242</v>
+        <v>-0.07054719774604828</v>
       </c>
       <c r="D68">
-        <v>-0.02872240011706413</v>
+        <v>0.03073411134605983</v>
       </c>
       <c r="E68">
-        <v>0.02190443190615125</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.001000068485390371</v>
+      </c>
+      <c r="F68">
+        <v>-0.02912696009461379</v>
+      </c>
+      <c r="G68">
+        <v>-0.07905548282177619</v>
+      </c>
+      <c r="H68">
+        <v>-0.0131876215355492</v>
+      </c>
+      <c r="I68">
+        <v>0.01873823060282878</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>0.05887846548627988</v>
+        <v>0.01785435826310038</v>
       </c>
       <c r="C69">
-        <v>0.1184425920584903</v>
+        <v>0.1177516944056992</v>
       </c>
       <c r="D69">
-        <v>-0.0655414044784519</v>
+        <v>0.01752328229070302</v>
       </c>
       <c r="E69">
-        <v>0.0140862456353485</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.005956811313072164</v>
+      </c>
+      <c r="F69">
+        <v>0.01243494978693493</v>
+      </c>
+      <c r="G69">
+        <v>0.03142741984091155</v>
+      </c>
+      <c r="H69">
+        <v>0.03292583937613124</v>
+      </c>
+      <c r="I69">
+        <v>-0.02220950194846369</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,435 +2724,747 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>0.2167423295526635</v>
+        <v>0.2711118415345323</v>
       </c>
       <c r="C71">
-        <v>-0.1751824355980077</v>
+        <v>-0.08903435109095544</v>
       </c>
       <c r="D71">
-        <v>-0.02125063404550401</v>
+        <v>0.01069124259647095</v>
       </c>
       <c r="E71">
-        <v>0.01055975200069436</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.006901073275065553</v>
+      </c>
+      <c r="F71">
+        <v>-0.01546790234184138</v>
+      </c>
+      <c r="G71">
+        <v>-0.03854629963152033</v>
+      </c>
+      <c r="H71">
+        <v>0.01780316356244607</v>
+      </c>
+      <c r="I71">
+        <v>-0.01751857875494102</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>0.1033134451557992</v>
+        <v>0.06377019851673346</v>
       </c>
       <c r="C72">
-        <v>0.07357213416262764</v>
+        <v>0.1252109373456728</v>
       </c>
       <c r="D72">
-        <v>-0.1209011989617489</v>
+        <v>0.05674139574769516</v>
       </c>
       <c r="E72">
-        <v>0.005277018237287386</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.07223598759076399</v>
+      </c>
+      <c r="F72">
+        <v>0.01910898539165446</v>
+      </c>
+      <c r="G72">
+        <v>0.06035631802453002</v>
+      </c>
+      <c r="H72">
+        <v>0.009030501032080909</v>
+      </c>
+      <c r="I72">
+        <v>-0.01544776273027952</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>0.1763845463916042</v>
+        <v>0.1596144398184066</v>
       </c>
       <c r="C73">
-        <v>0.0693561180881803</v>
+        <v>0.1620297574550369</v>
       </c>
       <c r="D73">
-        <v>-0.2333196186161398</v>
+        <v>0.08627585729778896</v>
       </c>
       <c r="E73">
-        <v>-0.1323153344336398</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.28270117782241</v>
+      </c>
+      <c r="F73">
+        <v>0.2889257736497096</v>
+      </c>
+      <c r="G73">
+        <v>0.2764405331100206</v>
+      </c>
+      <c r="H73">
+        <v>-0.3166167703647733</v>
+      </c>
+      <c r="I73">
+        <v>0.1836450530884831</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>0.1057405591569766</v>
+        <v>0.05532741699450589</v>
       </c>
       <c r="C74">
-        <v>0.1148494435690358</v>
+        <v>0.1405217563765223</v>
       </c>
       <c r="D74">
-        <v>0.03985202295216628</v>
+        <v>-0.05294506141527693</v>
       </c>
       <c r="E74">
-        <v>0.0230800581288779</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>-0.01926956529052944</v>
+      </c>
+      <c r="F74">
+        <v>-0.02896833201528513</v>
+      </c>
+      <c r="G74">
+        <v>-0.01004541967153823</v>
+      </c>
+      <c r="H74">
+        <v>-0.01726511604779655</v>
+      </c>
+      <c r="I74">
+        <v>0.01262388677493355</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>0.2241647584113029</v>
+        <v>0.1009741598067153</v>
       </c>
       <c r="C75">
-        <v>0.2004281249256966</v>
+        <v>0.259652010076943</v>
       </c>
       <c r="D75">
-        <v>0.09085262997272629</v>
+        <v>-0.1311826355542867</v>
       </c>
       <c r="E75">
-        <v>-0.07395851403294643</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>-0.1037604140146892</v>
+      </c>
+      <c r="F75">
+        <v>0.04382460433145418</v>
+      </c>
+      <c r="G75">
+        <v>-0.0960576009762322</v>
+      </c>
+      <c r="H75">
+        <v>0.0499145464516249</v>
+      </c>
+      <c r="I75">
+        <v>-0.0848356637891322</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>0.1363269901404633</v>
+        <v>0.06168660624066533</v>
       </c>
       <c r="C76">
-        <v>0.1378069522911574</v>
+        <v>0.1767047941433227</v>
       </c>
       <c r="D76">
-        <v>0.001106934438089269</v>
+        <v>-0.05319615352312435</v>
       </c>
       <c r="E76">
-        <v>-0.01032372052842345</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>-0.02726724759166974</v>
+      </c>
+      <c r="F76">
+        <v>0.002379111478213659</v>
+      </c>
+      <c r="G76">
+        <v>-0.02856597472342788</v>
+      </c>
+      <c r="H76">
+        <v>0.04652437051923621</v>
+      </c>
+      <c r="I76">
+        <v>-0.03524689569135882</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>0.01714731357284134</v>
+        <v>-0.0006477091573398008</v>
       </c>
       <c r="C77">
-        <v>0.06856188966279135</v>
+        <v>0.1080811217919322</v>
       </c>
       <c r="D77">
-        <v>-0.04104321988158657</v>
+        <v>0.3925222845488743</v>
       </c>
       <c r="E77">
-        <v>0.1062472379404821</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.8199181664054085</v>
+      </c>
+      <c r="F77">
+        <v>0.2147466323043988</v>
+      </c>
+      <c r="G77">
+        <v>0.1006750977476033</v>
+      </c>
+      <c r="H77">
+        <v>-0.1918271369548556</v>
+      </c>
+      <c r="I77">
+        <v>0.05248232741262816</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>0.03437643843056187</v>
+        <v>0.02363286730678964</v>
       </c>
       <c r="C78">
-        <v>0.07497448574487757</v>
+        <v>0.09681753209547724</v>
       </c>
       <c r="D78">
-        <v>-0.144944445149817</v>
+        <v>0.09549365357222661</v>
       </c>
       <c r="E78">
-        <v>0.07214635711311472</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.06259926671005124</v>
+      </c>
+      <c r="F78">
+        <v>-0.0521159557106412</v>
+      </c>
+      <c r="G78">
+        <v>-0.01197951461198332</v>
+      </c>
+      <c r="H78">
+        <v>0.09179480665484692</v>
+      </c>
+      <c r="I78">
+        <v>0.01923824734574315</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B79">
-        <v>0.1085789940965283</v>
+        <v>0.04777349977546017</v>
       </c>
       <c r="C79">
-        <v>0.1945793786765208</v>
+        <v>0.2035094949665368</v>
       </c>
       <c r="D79">
-        <v>0.354008409323246</v>
+        <v>-0.1299500772720759</v>
       </c>
       <c r="E79">
-        <v>0.8095822807969691</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>-0.1033212472126391</v>
+      </c>
+      <c r="F79">
+        <v>-0.7835568702476642</v>
+      </c>
+      <c r="G79">
+        <v>0.2263048117828794</v>
+      </c>
+      <c r="H79">
+        <v>-0.3877980746621053</v>
+      </c>
+      <c r="I79">
+        <v>0.1446525797425157</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>0.003847257827829555</v>
+        <v>0.007900398009253042</v>
       </c>
       <c r="C80">
-        <v>0.04434650619468446</v>
+        <v>0.04443004981391822</v>
       </c>
       <c r="D80">
-        <v>-0.05099761201349379</v>
+        <v>0.03624060583692502</v>
       </c>
       <c r="E80">
-        <v>0.008560437957321965</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.05101336694044421</v>
+      </c>
+      <c r="F80">
+        <v>-0.00307496599954224</v>
+      </c>
+      <c r="G80">
+        <v>0.01782273269186356</v>
+      </c>
+      <c r="H80">
+        <v>0.04804881538264913</v>
+      </c>
+      <c r="I80">
+        <v>0.07502362203607835</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>0.1139789511510368</v>
+        <v>0.04080803599690529</v>
       </c>
       <c r="C81">
-        <v>0.1339117987320734</v>
+        <v>0.1593942265499559</v>
       </c>
       <c r="D81">
-        <v>0.08292986584367486</v>
+        <v>-0.07980278424496406</v>
       </c>
       <c r="E81">
-        <v>0.01425651793821753</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>-0.05836631536871642</v>
+      </c>
+      <c r="F81">
+        <v>-0.05552638833348826</v>
+      </c>
+      <c r="G81">
+        <v>-0.03023064061556859</v>
+      </c>
+      <c r="H81">
+        <v>0.08966111901666325</v>
+      </c>
+      <c r="I81">
+        <v>-0.0268082125212139</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B82">
-        <v>0.2366369822260246</v>
+        <v>0.08689360710870121</v>
       </c>
       <c r="C82">
-        <v>0.2925084548668048</v>
+        <v>0.3008183011484248</v>
       </c>
       <c r="D82">
-        <v>0.1600412563170659</v>
+        <v>-0.2365896221651151</v>
       </c>
       <c r="E82">
-        <v>-0.2165609201285212</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>-0.0833952096635629</v>
+      </c>
+      <c r="F82">
+        <v>0.126780215495979</v>
+      </c>
+      <c r="G82">
+        <v>-0.06458821178503525</v>
+      </c>
+      <c r="H82">
+        <v>0.1483510772065056</v>
+      </c>
+      <c r="I82">
+        <v>-0.04858395687749673</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>-0.009719745535337977</v>
+        <v>-0.009497120655552834</v>
       </c>
       <c r="C83">
-        <v>0.05358645997643356</v>
+        <v>0.02140367927353356</v>
       </c>
       <c r="D83">
-        <v>-0.007782805970428227</v>
+        <v>0.0245319407233362</v>
       </c>
       <c r="E83">
-        <v>0.04153252664359935</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.09025257838406618</v>
+      </c>
+      <c r="F83">
+        <v>-0.06612558116239799</v>
+      </c>
+      <c r="G83">
+        <v>-0.008971555150288257</v>
+      </c>
+      <c r="H83">
+        <v>0.4468602136440553</v>
+      </c>
+      <c r="I83">
+        <v>0.8193455557605261</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B84">
-        <v>1.186106328100896e-06</v>
+        <v>-0.003348276818715284</v>
       </c>
       <c r="C84">
-        <v>-0.001701125914660929</v>
+        <v>0.01853498135793847</v>
       </c>
       <c r="D84">
-        <v>9.038985530046891e-06</v>
+        <v>0.04153628432115324</v>
       </c>
       <c r="E84">
-        <v>-0.003188222498508062</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>0.005535083471043857</v>
+      </c>
+      <c r="F84">
+        <v>-0.03183264068446297</v>
+      </c>
+      <c r="G84">
+        <v>-0.02531970794689225</v>
+      </c>
+      <c r="H84">
+        <v>0.03572064281781451</v>
+      </c>
+      <c r="I84">
+        <v>-0.07309149352956239</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>0.1405822031255043</v>
+        <v>0.05666375699646565</v>
       </c>
       <c r="C85">
-        <v>0.1417468858161987</v>
+        <v>0.1753077412829474</v>
       </c>
       <c r="D85">
-        <v>0.06622710085191896</v>
+        <v>-0.1121595703863797</v>
       </c>
       <c r="E85">
-        <v>0.02493441489034928</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>-0.01326686402330528</v>
+      </c>
+      <c r="F85">
+        <v>-0.06534115399868398</v>
+      </c>
+      <c r="G85">
+        <v>-0.03226126076587593</v>
+      </c>
+      <c r="H85">
+        <v>0.0008725980625612312</v>
+      </c>
+      <c r="I85">
+        <v>-0.01543403855499163</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>0.02061008274911432</v>
+        <v>0.01610653454178882</v>
       </c>
       <c r="C86">
-        <v>0.01005637142736852</v>
+        <v>0.04017091954236824</v>
       </c>
       <c r="D86">
-        <v>-0.09292288607945424</v>
+        <v>0.1078904107709276</v>
       </c>
       <c r="E86">
-        <v>0.03949859770563627</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.01599301595097481</v>
+      </c>
+      <c r="F86">
+        <v>-0.01771746782496724</v>
+      </c>
+      <c r="G86">
+        <v>0.01749982083541439</v>
+      </c>
+      <c r="H86">
+        <v>-0.01644020544030337</v>
+      </c>
+      <c r="I86">
+        <v>-0.02755781797417088</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>0.0229637463085299</v>
+        <v>0.01418305720998159</v>
       </c>
       <c r="C87">
-        <v>0.03084211157973912</v>
+        <v>0.06640377011110783</v>
       </c>
       <c r="D87">
-        <v>-0.1295801831945511</v>
+        <v>0.1368536803077478</v>
       </c>
       <c r="E87">
-        <v>0.07898778091127247</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.0254144237052108</v>
+      </c>
+      <c r="F87">
+        <v>-0.05022807810141388</v>
+      </c>
+      <c r="G87">
+        <v>-0.01304819086039507</v>
+      </c>
+      <c r="H87">
+        <v>0.08066142491984474</v>
+      </c>
+      <c r="I87">
+        <v>-0.01640673181534021</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>0.05195331981786937</v>
+        <v>0.03656578906873266</v>
       </c>
       <c r="C88">
-        <v>0.04478155887205387</v>
+        <v>0.07006783423213762</v>
       </c>
       <c r="D88">
-        <v>-0.006464168551139028</v>
+        <v>0.01244450103264768</v>
       </c>
       <c r="E88">
-        <v>0.02305085668614188</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.02576201894775672</v>
+      </c>
+      <c r="F88">
+        <v>-0.01925731430473834</v>
+      </c>
+      <c r="G88">
+        <v>0.02337503411124216</v>
+      </c>
+      <c r="H88">
+        <v>-0.0002858033425568051</v>
+      </c>
+      <c r="I88">
+        <v>-0.02533681939609225</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>0.3232986247665649</v>
+        <v>0.3970695514119482</v>
       </c>
       <c r="C89">
-        <v>-0.3215811433392967</v>
+        <v>-0.1686794993771359</v>
       </c>
       <c r="D89">
-        <v>-0.01101999549362501</v>
+        <v>0.04104643647773462</v>
       </c>
       <c r="E89">
-        <v>0.1024960776604295</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>-0.05325771133466888</v>
+      </c>
+      <c r="F89">
+        <v>-0.06400617490156975</v>
+      </c>
+      <c r="G89">
+        <v>0.03373383094748742</v>
+      </c>
+      <c r="H89">
+        <v>0.1631505607289296</v>
+      </c>
+      <c r="I89">
+        <v>0.02442726495438871</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>0.2593456274715065</v>
+        <v>0.3221019419045505</v>
       </c>
       <c r="C90">
-        <v>-0.2351142736367113</v>
+        <v>-0.1099077459890804</v>
       </c>
       <c r="D90">
-        <v>-0.05664693726952021</v>
+        <v>0.0331251211441705</v>
       </c>
       <c r="E90">
-        <v>0.0006064358170930895</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.002443624474196231</v>
+      </c>
+      <c r="F90">
+        <v>0.004980379921279604</v>
+      </c>
+      <c r="G90">
+        <v>-0.05557698977339283</v>
+      </c>
+      <c r="H90">
+        <v>0.03197603331707258</v>
+      </c>
+      <c r="I90">
+        <v>0.005042100672396681</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>0.1493431773259369</v>
+        <v>0.06826584391915089</v>
       </c>
       <c r="C91">
-        <v>0.1886310304463643</v>
+        <v>0.2010947185483956</v>
       </c>
       <c r="D91">
-        <v>0.1055542113484493</v>
+        <v>-0.1117308616196685</v>
       </c>
       <c r="E91">
-        <v>0.04430145915950134</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>-0.07357011368318671</v>
+      </c>
+      <c r="F91">
+        <v>-0.055461988017606</v>
+      </c>
+      <c r="G91">
+        <v>-0.01211651049607328</v>
+      </c>
+      <c r="H91">
+        <v>0.004169014503723552</v>
+      </c>
+      <c r="I91">
+        <v>0.02340125146958393</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>0.2423858382502777</v>
+        <v>0.3318285565434867</v>
       </c>
       <c r="C92">
-        <v>-0.2611026673126344</v>
+        <v>-0.1514221254123201</v>
       </c>
       <c r="D92">
-        <v>0.05198392609306383</v>
+        <v>0.01490514864016238</v>
       </c>
       <c r="E92">
-        <v>0.02908289182748621</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.07166134674696943</v>
+      </c>
+      <c r="F92">
+        <v>-0.03963198313557249</v>
+      </c>
+      <c r="G92">
+        <v>-0.01298539951417641</v>
+      </c>
+      <c r="H92">
+        <v>-0.01663928039317352</v>
+      </c>
+      <c r="I92">
+        <v>-0.1443835086627708</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>0.2846047861817335</v>
+        <v>0.3302984070992057</v>
       </c>
       <c r="C93">
-        <v>-0.2493426517383529</v>
+        <v>-0.123341739542067</v>
       </c>
       <c r="D93">
-        <v>0.002706173336130162</v>
+        <v>-0.02088544468285241</v>
       </c>
       <c r="E93">
-        <v>0.006313818250352119</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.01669800391571078</v>
+      </c>
+      <c r="F93">
+        <v>-0.01166138122452752</v>
+      </c>
+      <c r="G93">
+        <v>0.0002163647282811026</v>
+      </c>
+      <c r="H93">
+        <v>-0.03678011255327698</v>
+      </c>
+      <c r="I93">
+        <v>-0.02256388228003896</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>0.2751057463077211</v>
+        <v>0.1227956146350889</v>
       </c>
       <c r="C94">
-        <v>0.2658854816196597</v>
+        <v>0.3264752351789501</v>
       </c>
       <c r="D94">
-        <v>0.2458329315618085</v>
+        <v>-0.3519509685526322</v>
       </c>
       <c r="E94">
-        <v>-0.2806434430021864</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>-0.07652061823316308</v>
+      </c>
+      <c r="F94">
+        <v>0.1281532807517441</v>
+      </c>
+      <c r="G94">
+        <v>-0.2982409393157213</v>
+      </c>
+      <c r="H94">
+        <v>0.09221433609102206</v>
+      </c>
+      <c r="I94">
+        <v>-0.06573145871083325</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>0.007924894858825837</v>
+        <v>0.01585282945004099</v>
       </c>
       <c r="C95">
-        <v>0.03891547338647817</v>
+        <v>0.06572293974437017</v>
       </c>
       <c r="D95">
-        <v>-0.006193577289510858</v>
+        <v>0.1049877240293136</v>
       </c>
       <c r="E95">
-        <v>0.03214122239278269</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.1363028691249369</v>
+      </c>
+      <c r="F95">
+        <v>0.03883064434451775</v>
+      </c>
+      <c r="G95">
+        <v>0.2274028298541406</v>
+      </c>
+      <c r="H95">
+        <v>0.1636223002362698</v>
+      </c>
+      <c r="I95">
+        <v>-0.2034409945883787</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,44 +3478,80 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.002315770750737898</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>0.001098262839832421</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>-7.45647977333331e-05</v>
       </c>
       <c r="E97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>0.0035552389493966</v>
+      </c>
+      <c r="F97">
+        <v>-0.0006824092155065476</v>
+      </c>
+      <c r="G97">
+        <v>0.0002802264901179338</v>
+      </c>
+      <c r="H97">
+        <v>0.001421605434473799</v>
+      </c>
+      <c r="I97">
+        <v>-0.0065834363582104</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>0.156202333078852</v>
+        <v>0.1362253237778548</v>
       </c>
       <c r="C98">
-        <v>0.09157048438316109</v>
+        <v>0.1622912646726493</v>
       </c>
       <c r="D98">
-        <v>-0.1553273927337031</v>
+        <v>0.04184926300208584</v>
       </c>
       <c r="E98">
-        <v>-0.1233842573602035</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>0.189224877265462</v>
+      </c>
+      <c r="F98">
+        <v>0.2388967984797585</v>
+      </c>
+      <c r="G98">
+        <v>0.1811403389628694</v>
+      </c>
+      <c r="H98">
+        <v>-0.2404977853624531</v>
+      </c>
+      <c r="I98">
+        <v>0.1879132541841635</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +3565,22 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +3594,80 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>0.002591637146520707</v>
+        <v>0.00380002738421377</v>
       </c>
       <c r="C101">
-        <v>0.02188876898154541</v>
+        <v>0.04007978484873563</v>
       </c>
       <c r="D101">
-        <v>-0.07758072213767953</v>
+        <v>0.09136273617747533</v>
       </c>
       <c r="E101">
-        <v>0.03638532554197104</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.07057158857065932</v>
+      </c>
+      <c r="F101">
+        <v>-0.03215141611506826</v>
+      </c>
+      <c r="G101">
+        <v>0.09688164598567869</v>
+      </c>
+      <c r="H101">
+        <v>0.1342885299024538</v>
+      </c>
+      <c r="I101">
+        <v>-0.04145084941264434</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>0.1005827253666694</v>
+        <v>0.02444079758729372</v>
       </c>
       <c r="C102">
-        <v>0.1589592932041745</v>
+        <v>0.1405300529200251</v>
       </c>
       <c r="D102">
-        <v>0.05204847472879173</v>
+        <v>-0.1039054395329244</v>
       </c>
       <c r="E102">
-        <v>-0.09770204763059445</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>-0.04922818735399469</v>
+      </c>
+      <c r="F102">
+        <v>0.08117011324683261</v>
+      </c>
+      <c r="G102">
+        <v>0.00764436725717848</v>
+      </c>
+      <c r="H102">
+        <v>0.03922425336874978</v>
+      </c>
+      <c r="I102">
+        <v>0.002107149017473608</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +3681,22 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +3708,18 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
